--- a/SuRGE_Sharepoint/data/CIN/CH4_210_Dalecarlia/dataSheets/surgeData210.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_210_Dalecarlia/dataSheets/surgeData210.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_210_Dalecarlia/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_210_Dalecarlia/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1039" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67AC20E5-0776-4C87-86D4-7214A08E0767}"/>
+  <xr:revisionPtr revIDLastSave="1040" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6824B0F6-CF93-4721-B342-51EB2CB78A75}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1362,6 +1362,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1374,16 +1375,15 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1443,9 +1443,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1483,7 +1483,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1589,7 +1589,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1731,7 +1731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1741,101 +1741,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BP5" sqref="BP5"/>
+      <selection pane="topRight" activeCell="BK13" sqref="BK13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="18" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="30" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
       <c r="W1" s="33" t="s">
         <v>57</v>
       </c>
@@ -1877,19 +1877,19 @@
       <c r="BG1" s="33"/>
       <c r="BH1" s="33"/>
       <c r="BI1" s="33"/>
-      <c r="BJ1" s="31" t="s">
+      <c r="BJ1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="31"/>
-      <c r="BM1" s="32" t="s">
+      <c r="BK1" s="32"/>
+      <c r="BL1" s="32"/>
+      <c r="BM1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
-    </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2088,14 +2088,14 @@
       <c r="BN2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="BO2" s="35" t="s">
+      <c r="BO2" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="BP2" s="35" t="s">
+      <c r="BP2" s="28" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>162</v>
       </c>
@@ -2219,15 +2219,6 @@
       <c r="BI3" t="s">
         <v>220</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>223</v>
-      </c>
       <c r="BM3">
         <v>1.7519</v>
       </c>
@@ -2241,7 +2232,7 @@
         <v>0.69861111111111107</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>162</v>
       </c>
@@ -2378,7 +2369,7 @@
         <v>0.58888888888888891</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>162</v>
       </c>
@@ -2515,7 +2506,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>162</v>
       </c>
@@ -2640,7 +2631,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>162</v>
       </c>
@@ -2752,8 +2743,17 @@
       <c r="BI7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BJ7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>162</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>162</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>162</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>162</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>162</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>162</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>162</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>162</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>162</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>162</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>162</v>
       </c>
@@ -3947,12 +3947,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="BJ1:BL1"/>
     <mergeCell ref="W1:BI1"/>
-    <mergeCell ref="BM1:BP1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3968,14 +3968,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>145</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -4640,37 +4640,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081A6BD0-DB1A-406D-A526-8D337C57DAFE}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="25"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4704,7 +4704,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>162</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>162</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>162</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>162</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>162</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>162</v>
       </c>
@@ -4896,14 +4896,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>125</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>126</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>127</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>160</v>
       </c>
@@ -5027,62 +5027,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5553,7 +5497,102 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15A8C07-11E8-43CA-832F-C02E9056A480}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5562,26 +5601,7 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15A8C07-11E8-43CA-832F-C02E9056A480}"/>
 </file>